--- a/fixtures/output/ureponly/01043110000366247_maximum_indiv_risks.xlsx
+++ b/fixtures/output/ureponly/01043110000366247_maximum_indiv_risks.xlsx
@@ -67,10 +67,10 @@
     <t>Cancer risk</t>
   </si>
   <si>
-    <t>1.5e-08</t>
-  </si>
-  <si>
-    <t>30002</t>
+    <t>1.9e-08</t>
+  </si>
+  <si>
+    <t>9000</t>
   </si>
   <si>
     <t>Census block</t>
@@ -88,13 +88,13 @@
     <t>Neurological HI</t>
   </si>
   <si>
-    <t>1.8e-03</t>
+    <t>2.3e-03</t>
   </si>
   <si>
     <t>Developmental HI</t>
   </si>
   <si>
-    <t>6.0e-06</t>
+    <t>7.8e-06</t>
   </si>
   <si>
     <t>Reproductive HI</t>
@@ -523,7 +523,7 @@
         <v>16</v>
       </c>
       <c r="B2" t="n">
-        <v>1.50996364726e-08</v>
+        <v>1.93753098288e-08</v>
       </c>
       <c r="C2" t="n">
         <v>2e-08</v>
@@ -532,34 +532,34 @@
         <v>17</v>
       </c>
       <c r="E2" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>312.193850036</v>
+        <v>527.79730958</v>
       </c>
       <c r="G2" t="n">
-        <v>272.019207151</v>
+        <v>187.730942074</v>
       </c>
       <c r="H2" t="n">
-        <v>233.7</v>
+        <v>230.43</v>
       </c>
       <c r="I2" t="n">
-        <v>233.7</v>
+        <v>230.4</v>
       </c>
       <c r="J2" t="s">
         <v>18</v>
       </c>
       <c r="K2" t="n">
-        <v>514242</v>
+        <v>514483</v>
       </c>
       <c r="L2" t="n">
-        <v>3776669</v>
+        <v>3776135</v>
       </c>
       <c r="M2" t="n">
-        <v>34.1307921</v>
+        <v>34.12597</v>
       </c>
       <c r="N2" t="n">
-        <v>-86.845546</v>
+        <v>-86.842941</v>
       </c>
       <c r="O2" t="s">
         <v>19</v>
@@ -661,7 +661,7 @@
         <v>23</v>
       </c>
       <c r="B5" t="n">
-        <v>0.00177423577541</v>
+        <v>0.00227663546207</v>
       </c>
       <c r="C5" t="n">
         <v>0.002</v>
@@ -670,34 +670,34 @@
         <v>24</v>
       </c>
       <c r="E5" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>312.193850036</v>
+        <v>527.79730958</v>
       </c>
       <c r="G5" t="n">
-        <v>272.019207151</v>
+        <v>187.730942074</v>
       </c>
       <c r="H5" t="n">
-        <v>233.7</v>
+        <v>230.43</v>
       </c>
       <c r="I5" t="n">
-        <v>233.7</v>
+        <v>230.4</v>
       </c>
       <c r="J5" t="s">
         <v>18</v>
       </c>
       <c r="K5" t="n">
-        <v>514242</v>
+        <v>514483</v>
       </c>
       <c r="L5" t="n">
-        <v>3776669</v>
+        <v>3776135</v>
       </c>
       <c r="M5" t="n">
-        <v>34.1307921</v>
+        <v>34.12597</v>
       </c>
       <c r="N5" t="n">
-        <v>-86.845546</v>
+        <v>-86.842941</v>
       </c>
       <c r="O5" t="s">
         <v>19</v>
@@ -711,43 +711,43 @@
         <v>25</v>
       </c>
       <c r="B6" t="n">
-        <v>6.03985458904e-06</v>
+        <v>7.75012393151e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>6e-06</v>
+        <v>8e-06</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
       </c>
       <c r="E6" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>312.193850036</v>
+        <v>527.79730958</v>
       </c>
       <c r="G6" t="n">
-        <v>272.019207151</v>
+        <v>187.730942074</v>
       </c>
       <c r="H6" t="n">
-        <v>233.7</v>
+        <v>230.43</v>
       </c>
       <c r="I6" t="n">
-        <v>233.7</v>
+        <v>230.4</v>
       </c>
       <c r="J6" t="s">
         <v>18</v>
       </c>
       <c r="K6" t="n">
-        <v>514242</v>
+        <v>514483</v>
       </c>
       <c r="L6" t="n">
-        <v>3776669</v>
+        <v>3776135</v>
       </c>
       <c r="M6" t="n">
-        <v>34.1307921</v>
+        <v>34.12597</v>
       </c>
       <c r="N6" t="n">
-        <v>-86.845546</v>
+        <v>-86.842941</v>
       </c>
       <c r="O6" t="s">
         <v>19</v>
